--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2421.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2421.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.034422804751081</v>
+        <v>1.313208699226379</v>
       </c>
       <c r="B1">
-        <v>2.09560251489405</v>
+        <v>1.35558021068573</v>
       </c>
       <c r="C1">
-        <v>9.010950619111108</v>
+        <v>3.788367748260498</v>
       </c>
       <c r="D1">
-        <v>2.049215259559473</v>
+        <v>3.514906167984009</v>
       </c>
       <c r="E1">
-        <v>0.9969023550279088</v>
+        <v>1.04081654548645</v>
       </c>
     </row>
   </sheetData>
